--- a/PSEnergy Modificaciones solicitadas.xlsx
+++ b/PSEnergy Modificaciones solicitadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\psenergy_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30975C51-D396-41BA-9DAD-4FB45F71AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77236C1-8254-43FD-9D8C-87BA698106D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D167E44-E563-4DF9-9CAD-3636B941BCB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Fecha</t>
   </si>
@@ -59,12 +59,15 @@
   <si>
     <t>Verificar proceso cuando hay Internet pero el Servidor no responde</t>
   </si>
+  <si>
+    <t>Poner Snackbar cuando se graba una medición</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +83,13 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -127,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +159,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,7 +481,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -532,15 +545,19 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="3">
+        <v>44582</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
